--- a/medicine/Œil et vue/Fatigue_oculaire/Fatigue_oculaire.xlsx
+++ b/medicine/Œil et vue/Fatigue_oculaire/Fatigue_oculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fatigue oculaire aussi connue sous le nom d'asthénopie (du grec "asthenopia: ασθεν-ωπία") se manifeste par des symptômes non spécifiques tels que la fatigue, des douleurs dans ou autour des yeux, vision floue, des maux de tête et, occasionnellement, une vision double. Les symptômes surviennent souvent après la lecture, le travail sur ordinateur, ou d'autres activités qui impliquent des tâches visuelles intenses.
 Lorsque l'on se concentre sur une tâche visuelle intense, comme en se concentrant en continu sur un livre ou un moniteur d'ordinateur, le muscle ciliaire devient tendu. Ceci peut causer une irritation des yeux et devenir inconfortable. Mais se concentrer sur un objet lointain au moins une fois par heure, résout généralement le problème.
@@ -515,7 +527,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parfois l'asthénopie peut être dû à certains problèmes visuels, par exemple, des défauts visuels non corrigées ou des problèmes de vision binoculaire tels que l'hétérophorie. Elle est souvent causée en regardant des écrans comme ceux des ordinateurs ou des téléphones.
 </t>
@@ -546,7 +560,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que des mesures préventives, comme prendre des pauses durant les activités qui causent la fatigue oculaire soient conseillées, il existe certains traitements qu'une personne souffrant de cette maladie peut prendre pour soulager la douleur ou l'inconfort qu'elle peut causer. Le plus efficace est peut-être de supprimer toutes les sources de lumière dans une pièce et de se détendre les yeux dans l'obscurité. Les yeux n'ayant plus besoin de faire de mise au point vont naturellement se détendre petit à petit, soulageant l'inconfort causé par la fatigue musculaire. Des compresses froides peuvent aussi aider dans une certaine mesure, sans toutefois être trop froide, ce qui pourrait endommager les yeux eux-mêmes (comme de la glace). Un certain nombre de sociétés offrent des "lunettes pour ordinateur" qui, grâce à l'utilisation de verres spécialement teintés, aident à soulager la fatigue oculaire, elles ne peuvent toutefois pas complètement l'empêcher.
 </t>
